--- a/excel/output1.xlsx
+++ b/excel/output1.xlsx
@@ -20,16 +20,16 @@
     <t>₹3,706</t>
   </si>
   <si>
+    <t>Maple Engineered Wood Bookshelf In Wenge Finish</t>
+  </si>
+  <si>
+    <t>₹2,155</t>
+  </si>
+  <si>
     <t>Babylon Solid Wood Bookshelf In Walnut Finish</t>
   </si>
   <si>
     <t>₹4,465</t>
-  </si>
-  <si>
-    <t>Armstrong Engineered Wood Bookshelf In Laminate Finish</t>
-  </si>
-  <si>
-    <t>₹8,259</t>
   </si>
 </sst>
 </file>
